--- a/insurance-drools/src/main/resources/selfInsuranceRecommendRules/selfInsurance.xlsx
+++ b/insurance-drools/src/main/resources/selfInsuranceRecommendRules/selfInsurance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>PRIORITY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,15 +66,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.neo.drools.model.*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.neo.drools.model.fact.*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,22 +169,6 @@
     <t>Variables</t>
   </si>
   <si>
-    <t>com.neo.drools.model.request.SelfInsuranceRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.neo.drools.model.response.InsuranceRecommendResponse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.neo.drools.model.response.InsuranceRecommendResponse resp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.neo.drools.constants.*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>function List&lt;InsuranceTypeResult&gt; addTypeResult(InsuranceTypeEnum typeEnum, int score){
          InsuranceTypeResult result = new InsuranceTypeResult(score, typeEnum);
          return Arrays.asList(result);
@@ -204,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.neo.drools.model.fact.InsuranceTypeResult res2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>res2.setInsuranceTypeEnum($1);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +215,31 @@
   <si>
     <t>req.getFamilyIncomeExpenseInfo().getFamilyIncome()&gt;=$1,req.getFamilyIncomeExpenseInfo().getFamilyIncome()&lt;$2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceTypeEnum.ACCIDENT, 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.*</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.fact.*</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.constants.*</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.request.SelfInsuranceRequest</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.response.InsuranceRecommendResponse</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.response.InsuranceRecommendResponse resp</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.fact.InsuranceTypeResult res2</t>
   </si>
 </sst>
 </file>
@@ -680,7 +677,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,15 +718,15 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,7 +734,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -745,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,23 +750,23 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,7 +782,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -796,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -807,18 +804,18 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -826,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>6</v>
@@ -835,78 +832,78 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="C20" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="C21" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
